--- a/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>223,62%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>118,74%</t>
+          <t>435,7%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>68,87%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,37</t>
+          <t>-1,32; 6,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,71</t>
+          <t>1,49; 9,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,43</t>
+          <t>-1,51; 7,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,24; 152,33</t>
+          <t>-4,57; 8,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,67; 675,53</t>
+          <t>-46,72; 677,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 355,39</t>
+          <t>10,99; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-32,29; 342,72</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-40,62; 188,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,88%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-25,47%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 8,82</t>
+          <t>-6,78; 4,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 3,01</t>
+          <t>-10,93; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,35</t>
+          <t>-3,19; 5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 254,68</t>
+          <t>-7,64; 3,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,03; 184,57</t>
+          <t>-68,33; 137,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 156,92</t>
+          <t>-97,33; 432,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-66,85; 373,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-70,09; 95,39</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>-23,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-67,46%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-34,5%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-74,77%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 9,22</t>
+          <t>-6,26; 9,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 3,58</t>
+          <t>-63,99; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 6,99</t>
+          <t>-34,33; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-17,07; 17,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,87</t>
+          <t>-2,45; 3,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,53</t>
+          <t>-9,24; 3,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,84</t>
+          <t>-2,4; 4,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 127,89</t>
+          <t>-3,72; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 160,95</t>
+          <t>-41,77; 132,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 112,92</t>
+          <t>-74,7; 237,4</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-38,98; 146,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-37,81; 79,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>80,53%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>435,7%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>68,87%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,18%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.819336016443828</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.169377424233453</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.213049300621031</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.945417253252536</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.558619979308862</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>5.720216651872283</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7588218021810654</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2399560127418484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 6,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 9,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 7,47</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 8,56</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-46,72; 677,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,99; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-32,29; 342,72</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,62; 188,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.2326541905556615</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.464382481006024</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.391788489999058</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.65176118105881</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3084035654138807</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.3346178830729428</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3135123305389798</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4010711065718414</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.59639006770637</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.11352876827277</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.225655721439173</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.358730097971733</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>10.91181266337987</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>3.637390870043198</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.087731880225772</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-19,12%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-16,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>41,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,78; 4,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 3,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; 5,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,64; 3,75</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-68,33; 137,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-97,33; 432,57</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-66,85; 373,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-70,09; 95,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2910630274140534</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.7695650989082481</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.418059616484341</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.938352836191884</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.05108242145478993</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1651753334718334</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4446541315017513</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2597174047793453</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-23,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,9</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-74,77%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.441630454203344</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.30676253092731</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.205531515177568</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.8221307985899</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.635027557875214</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9734463565108601</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6527231317551139</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7086921705091004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 9,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-63,99; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-34,33; 2,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,07; 17,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.9382118133117</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.914404417456558</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.50089524911442</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.748926872239842</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.882625598241733</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.83547335413538</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.976871003256872</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.03033352427302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +825,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,8%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,99%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,7%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7827177096191008</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.11754485864499</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.143779807907989</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5370206275942604</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.309759375191453</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7071158024110082</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.07070340712944416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,71</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 3,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 4,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 4,48</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-41,77; 132,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-74,7; 237,4</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-38,98; 146,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; 79,52</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.228137872583829</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-59.96138538955022</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-31.5432143672703</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.39910759649908</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.27097381637314</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.943876540993949</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.19649974025354</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.799320390384595</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5435169697624989</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.383819780059223</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3276315205264516</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4709298167902224</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1180477072473574</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3119950468729272</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04207644161743487</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.480386622067681</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.981184794683171</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.254454927532992</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.665608917029613</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3112260991705468</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6744768071239052</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3774356071728107</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3929189060209903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.203824681301279</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.661776618143911</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.687808086302119</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.897263830813061</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.971604448688117</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.198148938426538</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.588383063276804</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9146875372574294</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1007,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
